--- a/Student-Distributor/src/Excel/Student List.xlsx
+++ b/Student-Distributor/src/Excel/Student List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Operations Research"/>
@@ -16,19 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
-  <si>
-    <t>Course Name</t>
-  </si>
-  <si>
-    <t>Operations Research</t>
-  </si>
-  <si>
-    <t>Course Code</t>
-  </si>
-  <si>
-    <t>MATH 111-EC00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -398,7 +386,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,12 +397,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -446,15 +428,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -770,339 +749,339 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
         <v>37</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="B3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="B4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="B5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="B6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="B9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="B10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="B11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="B13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1">
         <v>51</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="B15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1">
         <v>52</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1">
         <v>53</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1">
         <v>54</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1">
         <v>55</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="B19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1">
         <v>56</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="B20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1">
         <v>57</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="B21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1">
         <v>58</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1">
         <v>59</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="B23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1">
         <v>60</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="B24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1">
         <v>61</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="B25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1">
         <v>62</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="B26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1">
         <v>63</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1120,335 +1099,335 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
         <v>64</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
         <v>65</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
         <v>66</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1">
         <v>67</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1">
         <v>68</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1">
         <v>69</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1">
         <v>70</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1">
         <v>71</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1">
         <v>72</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1">
         <v>73</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1">
         <v>74</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1">
         <v>75</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1">
         <v>76</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1">
         <v>77</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1">
         <v>78</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1">
         <v>79</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1">
         <v>80</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1">
         <v>81</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1">
         <v>82</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1">
         <v>83</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1">
         <v>84</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1">
         <v>85</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1">
         <v>86</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="4"/>
+      <c r="B24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1">
         <v>87</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1">
         <v>88</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="4"/>
+      <c r="B26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1">
         <v>89</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1460,451 +1439,419 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1">
-        <v>22</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1">
-        <v>23</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1">
-        <v>24</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1">
-        <v>25</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1">
-        <v>26</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1">
-        <v>27</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1">
-        <v>28</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1">
-        <v>29</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1">
-        <v>30</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1">
-        <v>31</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1">
-        <v>32</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1">
-        <v>33</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="1">
-        <v>34</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="1">
-        <v>35</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="B37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>